--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Model</t>
   </si>
@@ -196,24 +196,21 @@
   </si>
   <si>
     <t>80/80</t>
+  </si>
+  <si>
+    <t>Mô hình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -222,11 +219,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -239,22 +231,49 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -289,86 +308,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -411,73 +350,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,1182 +649,1214 @@
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" customWidth="1"/>
+    <col min="8" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0.41</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>0.22</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>0.39900000000000002</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0.182</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.43</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.223</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>0.187</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="19">
         <v>0.1386</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="19">
         <v>95.6</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="19">
         <v>95.64</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="19">
         <v>95.6</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="19">
         <v>95.59</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="19">
         <v>24.69</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.224</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>0.187</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="19">
         <v>0.1525</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="19">
         <v>97.07</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="19">
         <v>97.14</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="19">
         <v>97.07</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="19">
         <v>97.06</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="19">
         <v>94.83</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.216</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.182</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="19">
         <v>0.123</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="19">
         <v>95.6</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="19">
         <v>95.69</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="19">
         <v>95.6</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="19">
         <v>95.59</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="19">
         <v>40.35</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.39200000000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>0.187</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="19">
         <v>0.245</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="19">
         <v>89.75</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="19">
         <v>90.17</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="19">
         <v>89.75</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="19">
         <v>89.81</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="19">
         <v>62.28</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>0.19900000000000001</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="19">
         <v>0.18140000000000001</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="19">
         <v>93.17</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="19">
         <v>93.97</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="19">
         <v>93.17</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="19">
         <v>93.2</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="19">
         <v>108.28</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.222</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>0.189</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="19">
         <v>0.68789999999999996</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="19">
         <v>70.73</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="19">
         <v>70.510000000000005</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="19">
         <v>70.73</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="19">
         <v>69.23</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="19">
         <v>114.66</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0.192</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="19">
         <v>0.82230000000000003</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <v>62.43</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="19">
         <v>69.95</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <v>62.43</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="19">
         <v>58.29</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.42799999999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>0.189</v>
       </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0.19500000000000001</v>
       </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>0.191</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>0.38500000000000001</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>0.2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>0.371</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.223</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.1149</v>
+      </c>
+      <c r="K14" s="19">
+        <v>96.09</v>
+      </c>
+      <c r="L14" s="19">
+        <v>96.5</v>
+      </c>
+      <c r="M14" s="19">
+        <v>96.09</v>
+      </c>
+      <c r="N14" s="19">
+        <v>96.08</v>
+      </c>
+      <c r="O14" s="19">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="K15" s="19">
+        <v>95.12</v>
+      </c>
+      <c r="L15" s="19">
+        <v>95.19</v>
+      </c>
+      <c r="M15" s="19">
+        <v>95.12</v>
+      </c>
+      <c r="N15" s="19">
+        <v>95.07</v>
+      </c>
+      <c r="O15" s="19">
+        <v>94.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="K16" s="19">
+        <v>97.07</v>
+      </c>
+      <c r="L16" s="19">
+        <v>97.12</v>
+      </c>
+      <c r="M16" s="19">
+        <v>97.07</v>
+      </c>
+      <c r="N16" s="19">
+        <v>97.05</v>
+      </c>
+      <c r="O16" s="19">
+        <v>40.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.1729</v>
+      </c>
+      <c r="K17" s="19">
+        <v>93.65</v>
+      </c>
+      <c r="L17" s="19">
+        <v>93.65</v>
+      </c>
+      <c r="M17" s="19">
+        <v>93.65</v>
+      </c>
+      <c r="N17" s="19">
+        <v>93.62</v>
+      </c>
+      <c r="O17" s="19">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="K18" s="19">
+        <v>85.85</v>
+      </c>
+      <c r="L18" s="19">
+        <v>87.09</v>
+      </c>
+      <c r="M18" s="19">
+        <v>85.85</v>
+      </c>
+      <c r="N18" s="19">
+        <v>85.79</v>
+      </c>
+      <c r="O18" s="19">
+        <v>108.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="K19" s="19">
+        <v>67.31</v>
+      </c>
+      <c r="L19" s="19">
+        <v>66.88</v>
+      </c>
+      <c r="M19" s="19">
+        <v>67.31</v>
+      </c>
+      <c r="N19" s="19">
+        <v>66.83</v>
+      </c>
+      <c r="O19" s="19">
+        <v>114.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.182</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="K20" s="19">
+        <v>63.9</v>
+      </c>
+      <c r="L20" s="19">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="M20" s="19">
+        <v>63.9</v>
+      </c>
+      <c r="N20" s="19">
+        <v>61.67</v>
+      </c>
+      <c r="O20" s="19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.182</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O24" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.184</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.1174</v>
+      </c>
+      <c r="K25" s="19">
+        <v>98.53</v>
+      </c>
+      <c r="L25" s="19">
+        <v>98.53</v>
+      </c>
+      <c r="M25" s="19">
+        <v>98.53</v>
+      </c>
+      <c r="N25" s="19">
+        <v>98.53</v>
+      </c>
+      <c r="O25" s="19">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.223</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.1149</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="C26" s="11">
+        <v>0.184</v>
+      </c>
+      <c r="D26" s="11">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F26" s="11">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0.1179</v>
+      </c>
+      <c r="K26" s="19">
         <v>96.09</v>
       </c>
-      <c r="L14" s="17">
-        <v>96.5</v>
-      </c>
-      <c r="M14" s="17">
+      <c r="L26" s="19">
+        <v>96.42</v>
+      </c>
+      <c r="M26" s="19">
         <v>96.09</v>
       </c>
-      <c r="N14" s="17">
-        <v>96.08</v>
-      </c>
-      <c r="O14" s="17">
-        <v>24.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0.16869999999999999</v>
-      </c>
-      <c r="K15" s="17">
-        <v>95.12</v>
-      </c>
-      <c r="L15" s="17">
-        <v>95.19</v>
-      </c>
-      <c r="M15" s="17">
-        <v>95.12</v>
-      </c>
-      <c r="N15" s="17">
-        <v>95.07</v>
-      </c>
-      <c r="O15" s="17">
+      <c r="N26" s="19">
+        <v>96.1</v>
+      </c>
+      <c r="O26" s="19">
         <v>94.83</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H16" s="17" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="17">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="K16" s="17">
-        <v>97.07</v>
-      </c>
-      <c r="L16" s="17">
-        <v>97.12</v>
-      </c>
-      <c r="M16" s="17">
-        <v>97.07</v>
-      </c>
-      <c r="N16" s="17">
-        <v>97.05</v>
-      </c>
-      <c r="O16" s="17">
+      <c r="J27" s="19">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="K27" s="19">
+        <v>95.6</v>
+      </c>
+      <c r="L27" s="19">
+        <v>95.7</v>
+      </c>
+      <c r="M27" s="19">
+        <v>95.6</v>
+      </c>
+      <c r="N27" s="19">
+        <v>95.58</v>
+      </c>
+      <c r="O27" s="19">
         <v>40.35</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.224</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.187</v>
-      </c>
-      <c r="H17" s="17" t="s">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.315</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="K28" s="19">
+        <v>93.17</v>
+      </c>
+      <c r="L28" s="19">
+        <v>93.37</v>
+      </c>
+      <c r="M28" s="19">
+        <v>93.17</v>
+      </c>
+      <c r="N28" s="19">
+        <v>93.21</v>
+      </c>
+      <c r="O28" s="19">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.317</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.151</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="17">
-        <v>0.1729</v>
-      </c>
-      <c r="K17" s="17">
-        <v>93.65</v>
-      </c>
-      <c r="L17" s="17">
-        <v>93.65</v>
-      </c>
-      <c r="M17" s="17">
-        <v>93.65</v>
-      </c>
-      <c r="N17" s="17">
-        <v>93.62</v>
-      </c>
-      <c r="O17" s="17">
-        <v>62.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.222</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.187</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0.43769999999999998</v>
-      </c>
-      <c r="K18" s="17">
-        <v>85.85</v>
-      </c>
-      <c r="L18" s="17">
-        <v>87.09</v>
-      </c>
-      <c r="M18" s="17">
-        <v>85.85</v>
-      </c>
-      <c r="N18" s="17">
-        <v>85.79</v>
-      </c>
-      <c r="O18" s="17">
+      <c r="J29" s="19">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="K29" s="19">
+        <v>87.8</v>
+      </c>
+      <c r="L29" s="19">
+        <v>87.94</v>
+      </c>
+      <c r="M29" s="19">
+        <v>87.8</v>
+      </c>
+      <c r="N29" s="19">
+        <v>87.74</v>
+      </c>
+      <c r="O29" s="19">
         <v>108.28</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H19" s="17" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.127</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.109</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="K30" s="19">
+        <v>70.73</v>
+      </c>
+      <c r="L30" s="19">
+        <v>70.08</v>
+      </c>
+      <c r="M30" s="19">
+        <v>70.73</v>
+      </c>
+      <c r="N30" s="19">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="O30" s="19">
+        <v>114.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="17">
-        <v>0.69540000000000002</v>
-      </c>
-      <c r="K19" s="17">
-        <v>67.31</v>
-      </c>
-      <c r="L19" s="17">
-        <v>66.88</v>
-      </c>
-      <c r="M19" s="17">
-        <v>67.31</v>
-      </c>
-      <c r="N19" s="17">
-        <v>66.83</v>
-      </c>
-      <c r="O19" s="17">
-        <v>114.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.73640000000000005</v>
-      </c>
-      <c r="K20" s="17">
-        <v>63.9</v>
-      </c>
-      <c r="L20" s="17">
-        <v>64.150000000000006</v>
-      </c>
-      <c r="M20" s="17">
-        <v>63.9</v>
-      </c>
-      <c r="N20" s="17">
-        <v>61.67</v>
-      </c>
-      <c r="O20" s="17">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.182</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.184</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0.1174</v>
-      </c>
-      <c r="K25" s="17">
-        <v>98.53</v>
-      </c>
-      <c r="L25" s="17">
-        <v>98.53</v>
-      </c>
-      <c r="M25" s="17">
-        <v>98.53</v>
-      </c>
-      <c r="N25" s="17">
-        <v>98.53</v>
-      </c>
-      <c r="O25" s="17">
-        <v>24.69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.184</v>
-      </c>
-      <c r="D26" s="3">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F26" s="4">
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0.1179</v>
-      </c>
-      <c r="K26" s="17">
-        <v>96.09</v>
-      </c>
-      <c r="L26" s="17">
-        <v>96.42</v>
-      </c>
-      <c r="M26" s="17">
-        <v>96.09</v>
-      </c>
-      <c r="N26" s="17">
-        <v>96.1</v>
-      </c>
-      <c r="O26" s="17">
-        <v>94.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0.18529999999999999</v>
-      </c>
-      <c r="K27" s="17">
-        <v>95.6</v>
-      </c>
-      <c r="L27" s="17">
-        <v>95.7</v>
-      </c>
-      <c r="M27" s="17">
-        <v>95.6</v>
-      </c>
-      <c r="N27" s="17">
-        <v>95.58</v>
-      </c>
-      <c r="O27" s="17">
-        <v>40.35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.315</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.156</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="K28" s="17">
-        <v>93.17</v>
-      </c>
-      <c r="L28" s="17">
-        <v>93.37</v>
-      </c>
-      <c r="M28" s="17">
-        <v>93.17</v>
-      </c>
-      <c r="N28" s="17">
-        <v>93.21</v>
-      </c>
-      <c r="O28" s="17">
-        <v>62.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.317</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.151</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0.32240000000000002</v>
-      </c>
-      <c r="K29" s="17">
-        <v>87.8</v>
-      </c>
-      <c r="L29" s="17">
-        <v>87.94</v>
-      </c>
-      <c r="M29" s="17">
-        <v>87.8</v>
-      </c>
-      <c r="N29" s="17">
-        <v>87.74</v>
-      </c>
-      <c r="O29" s="17">
-        <v>108.28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.127</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.109</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="K30" s="17">
-        <v>70.73</v>
-      </c>
-      <c r="L30" s="17">
-        <v>70.08</v>
-      </c>
-      <c r="M30" s="17">
-        <v>70.73</v>
-      </c>
-      <c r="N30" s="17">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="O30" s="17">
-        <v>114.66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="17">
+      <c r="J31" s="19">
         <v>0.64319999999999999</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="19">
         <v>68.78</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="19">
         <v>68.16</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="19">
         <v>68.78</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="19">
         <v>68.34</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="19">
         <v>188</v>
       </c>
     </row>
